--- a/Team-Data/2007-08/3-14-2007-08.xlsx
+++ b/Team-Data/2007-08/3-14-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,58 +733,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>0.415</v>
+        <v>0.406</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J2" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M2" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.347</v>
+        <v>0.342</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P2" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T2" t="n">
         <v>42.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V2" t="n">
         <v>15.3</v>
@@ -735,31 +802,31 @@
         <v>20.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -768,19 +835,19 @@
         <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
@@ -795,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="AU2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>26</v>
@@ -816,10 +883,10 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
         <v>51</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.797</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,67 +933,67 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="K3" t="n">
         <v>0.476</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="O3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P3" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U3" t="n">
         <v>22.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
         <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
         <v>22.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -962,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
@@ -974,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -989,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.369</v>
+        <v>0.375</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,10 +1115,10 @@
         <v>35.7</v>
       </c>
       <c r="J4" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>6.4</v>
@@ -1060,13 +1127,13 @@
         <v>17.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="n">
         <v>0.709</v>
@@ -1081,10 +1148,10 @@
         <v>40.7</v>
       </c>
       <c r="U4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.5</v>
@@ -1099,16 +1166,16 @@
         <v>22.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="AC4" t="n">
         <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1138,13 +1205,13 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1153,22 +1220,22 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1180,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.406</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.429</v>
@@ -1239,7 +1306,7 @@
         <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
         <v>0.353</v>
@@ -1248,10 +1315,10 @@
         <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
         <v>13.5</v>
@@ -1263,46 +1330,46 @@
         <v>43.7</v>
       </c>
       <c r="U5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W5" t="n">
         <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA5" t="n">
         <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1326,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1347,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>8</v>
@@ -1365,7 +1432,7 @@
         <v>19</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1496,7 +1563,7 @@
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>10</v>
@@ -1505,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1526,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.652</v>
+        <v>0.646</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M7" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S7" t="n">
         <v>32.2</v>
       </c>
       <c r="T7" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1639,25 +1706,25 @@
         <v>4.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA7" t="n">
         <v>21.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1669,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1678,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
         <v>20</v>
@@ -1687,10 +1754,10 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1723,13 +1790,13 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.594</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="J8" t="n">
         <v>85.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L8" t="n">
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.346</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R8" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S8" t="n">
         <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W8" t="n">
         <v>9.1</v>
@@ -1824,19 +1891,19 @@
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
         <v>23.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>108</v>
+        <v>107.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1857,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
         <v>14</v>
@@ -1878,10 +1945,10 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1902,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.723</v>
+        <v>0.719</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,37 +2025,37 @@
         <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P9" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S9" t="n">
         <v>29.4</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
         <v>22.6</v>
@@ -1997,7 +2064,7 @@
         <v>11.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>5.5</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2036,19 +2103,19 @@
         <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2060,16 +2127,16 @@
         <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
         <v>26</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
         <v>23</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2233,10 +2300,10 @@
         <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L11" t="n">
         <v>7.2</v>
       </c>
       <c r="M11" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
         <v>22.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="R11" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S11" t="n">
         <v>32.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V11" t="n">
         <v>14.2</v>
@@ -2370,28 +2437,28 @@
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA11" t="n">
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
@@ -2406,28 +2473,28 @@
         <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
       </c>
       <c r="AP11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>26</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>28</v>
-      </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW11" t="n">
         <v>15</v>
@@ -2448,13 +2515,13 @@
         <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -2486,61 +2553,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
         <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="n">
-        <v>0.385</v>
+        <v>0.391</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J12" t="n">
         <v>85.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="O12" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="P12" t="n">
         <v>24.3</v>
       </c>
-      <c r="N12" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="O12" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="P12" t="n">
-        <v>24.4</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2552,19 +2619,19 @@
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB12" t="n">
         <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2594,19 +2661,19 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>9</v>
       </c>
       <c r="AR12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,10 +2753,10 @@
         <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>4.3</v>
@@ -2707,19 +2774,19 @@
         <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R13" t="n">
         <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
@@ -2734,7 +2801,7 @@
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA13" t="n">
         <v>21.8</v>
@@ -2743,16 +2810,16 @@
         <v>93.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.2</v>
+        <v>-5.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2770,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>26</v>
@@ -2779,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2788,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
@@ -2803,7 +2870,7 @@
         <v>13</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>16</v>
@@ -2818,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
         <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
         <v>7.6</v>
       </c>
       <c r="M14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
         <v>21.5</v>
@@ -2895,7 +2962,7 @@
         <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T14" t="n">
         <v>44.1</v>
@@ -2904,7 +2971,7 @@
         <v>24</v>
       </c>
       <c r="V14" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.199999999999999</v>
@@ -2913,22 +2980,22 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
         <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2955,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="AM14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-7</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3122,10 +3189,10 @@
         <v>28</v>
       </c>
       <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
         <v>14</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>14</v>
@@ -3143,10 +3210,10 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3173,10 +3240,10 @@
         <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>7</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="n">
-        <v>0.172</v>
+        <v>0.175</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,40 +3299,40 @@
         <v>35.5</v>
       </c>
       <c r="J16" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P16" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R16" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="U16" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
@@ -3274,16 +3341,16 @@
         <v>7.2</v>
       </c>
       <c r="X16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
         <v>93.7</v>
@@ -3292,7 +3359,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3325,19 +3392,19 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3361,10 +3428,10 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>24</v>
@@ -3525,7 +3592,7 @@
         <v>23</v>
       </c>
       <c r="AU17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
@@ -3546,7 +3613,7 @@
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -3578,49 +3645,49 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
         <v>49</v>
       </c>
       <c r="G18" t="n">
-        <v>0.234</v>
+        <v>0.222</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J18" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R18" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
         <v>29.4</v>
@@ -3632,10 +3699,10 @@
         <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
@@ -3644,28 +3711,28 @@
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.2</v>
+        <v>-7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
         <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH18" t="n">
         <v>28</v>
@@ -3677,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,34 +3753,34 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3728,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3892,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>23</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="n">
         <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
         <v>83.3</v>
@@ -3966,37 +4033,37 @@
         <v>0.463</v>
       </c>
       <c r="L20" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
         <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="O20" t="n">
         <v>15.4</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T20" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
@@ -4005,31 +4072,31 @@
         <v>3.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
         <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
@@ -4083,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,10 +4281,10 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
@@ -4238,7 +4305,7 @@
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
         <v>22</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.642</v>
+        <v>0.636</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,7 +4391,7 @@
         <v>37.2</v>
       </c>
       <c r="J22" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K22" t="n">
         <v>0.474</v>
@@ -4333,25 +4400,25 @@
         <v>9.4</v>
       </c>
       <c r="M22" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P22" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="R22" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
         <v>42.2</v>
@@ -4363,16 +4430,16 @@
         <v>14.4</v>
       </c>
       <c r="W22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
         <v>4.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA22" t="n">
         <v>23.7</v>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
@@ -4402,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4417,25 +4484,25 @@
         <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
@@ -4444,13 +4511,13 @@
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
         <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.485</v>
+        <v>0.477</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.318</v>
+        <v>0.316</v>
       </c>
       <c r="O23" t="n">
-        <v>18.3</v>
+        <v>17.9</v>
       </c>
       <c r="P23" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.707</v>
+        <v>0.702</v>
       </c>
       <c r="R23" t="n">
         <v>13.1</v>
       </c>
       <c r="S23" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
         <v>8.5</v>
@@ -4557,19 +4624,19 @@
         <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
         <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4587,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,10 +4666,10 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,13 +4678,13 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT23" t="n">
         <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>17</v>
@@ -4626,19 +4693,19 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>4.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -4760,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4814,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4945,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -4960,7 +5027,7 @@
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>22</v>
@@ -4969,7 +5036,7 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -5002,7 +5069,7 @@
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,13 +5191,13 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
         <v>12</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="n">
         <v>44</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>0.677</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5246,13 +5313,13 @@
         <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O27" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.757</v>
@@ -5261,13 +5328,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T27" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U27" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V27" t="n">
         <v>12.9</v>
@@ -5285,58 +5352,58 @@
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
       </c>
       <c r="AL27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM27" t="n">
         <v>7</v>
       </c>
-      <c r="AM27" t="n">
-        <v>8</v>
-      </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>10</v>
@@ -5345,7 +5412,7 @@
         <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5366,10 +5433,10 @@
         <v>25</v>
       </c>
       <c r="BB27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="n">
-        <v>0.242</v>
+        <v>0.246</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J28" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K28" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
@@ -5428,13 +5495,13 @@
         <v>11.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
@@ -5443,52 +5510,52 @@
         <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V28" t="n">
         <v>16.5</v>
       </c>
       <c r="W28" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8</v>
+        <v>-8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5509,7 +5576,7 @@
         <v>27</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>25</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5539,7 +5606,7 @@
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ28" t="n">
         <v>13</v>
@@ -5548,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="n">
         <v>34</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.523</v>
+        <v>0.531</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
         <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.404</v>
+        <v>0.406</v>
       </c>
       <c r="O29" t="n">
         <v>16.8</v>
       </c>
       <c r="P29" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.800000000000001</v>
@@ -5628,13 +5695,13 @@
         <v>30.4</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
@@ -5649,16 +5716,16 @@
         <v>19.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5691,16 +5758,16 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5733,7 +5800,7 @@
         <v>10</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.657</v>
+        <v>0.652</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>39.9</v>
       </c>
       <c r="J30" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
         <v>0.496</v>
@@ -5792,16 +5859,16 @@
         <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O30" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R30" t="n">
         <v>11.3</v>
@@ -5813,37 +5880,37 @@
         <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AA30" t="n">
         <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5870,22 +5937,22 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5903,7 +5970,7 @@
         <v>22</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6052,7 +6119,7 @@
         <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6085,7 +6152,7 @@
         <v>9</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-14-2007-08</t>
+          <t>2008-03-14</t>
         </is>
       </c>
     </row>
